--- a/Running projects/Meezan Bank Head Office/001 Gate Pass.xlsx
+++ b/Running projects/Meezan Bank Head Office/001 Gate Pass.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7BAB83-6456-4660-8D57-E965762DA1AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56928021-C20D-410C-ADC4-5DE81CD6DD7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HVAC" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$E$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$E$53</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$28:$28</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>S. #</t>
   </si>
@@ -42,9 +42,6 @@
     <t>For PIONEER SERVICES</t>
   </si>
   <si>
-    <t>M/s Meezan Bank Head Office</t>
-  </si>
-  <si>
     <t>SST 15%</t>
   </si>
   <si>
@@ -57,28 +54,52 @@
     <t>Total Amount after discount Rs</t>
   </si>
   <si>
+    <t>Following material shifting to M/S Pioneer store</t>
+  </si>
+  <si>
+    <t>Gate Pass</t>
+  </si>
+  <si>
+    <t>Hilti</t>
+  </si>
+  <si>
+    <t>Grinder</t>
+  </si>
+  <si>
+    <t>Pipe Wrench (adjustable)</t>
+  </si>
+  <si>
+    <t>Screw Spanner</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Fix Spanner</t>
+  </si>
+  <si>
+    <t>Screw Driver</t>
+  </si>
+  <si>
+    <t>Knife</t>
+  </si>
+  <si>
+    <t>Measurement tape</t>
+  </si>
+  <si>
+    <t>Extension Wire</t>
+  </si>
+  <si>
+    <t>Nos</t>
+  </si>
+  <si>
     <t>Rft</t>
   </si>
   <si>
-    <t>GATE PASS</t>
-  </si>
-  <si>
-    <t>Following material shifting to M/S Pioneer store</t>
-  </si>
-  <si>
-    <t>Thermopore insulation 8" Dia</t>
-  </si>
-  <si>
-    <t>Thermopore insulation 10" Dia</t>
-  </si>
-  <si>
-    <t>Thermopore insulation 6" Dia</t>
-  </si>
-  <si>
-    <t>Thermopore insulation 4" Dia</t>
-  </si>
-  <si>
-    <t>27 April 2025</t>
+    <t>M/s Meezan Bank</t>
+  </si>
+  <si>
+    <t>09 May 2025</t>
   </si>
 </sst>
 </file>
@@ -284,7 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -349,18 +370,12 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -370,6 +385,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -379,14 +397,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -565,16 +592,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>169864</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>449645</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>44448</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>505208</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>107948</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -603,7 +630,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8124825" y="7821614"/>
+          <a:off x="147638" y="8064500"/>
           <a:ext cx="643320" cy="520698"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -615,16 +642,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>71806</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>87312</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>269499</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>7937</xdr:rowOff>
+      <xdr:colOff>872380</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -653,7 +680,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8263306" y="222250"/>
+          <a:off x="8691562" y="1317624"/>
           <a:ext cx="2340818" cy="1031875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -665,16 +692,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>54751</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>118251</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>230187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>432442</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>96061</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>781692</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>135748</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -703,7 +730,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54751" y="7088188"/>
+          <a:off x="8722501" y="6596062"/>
           <a:ext cx="663441" cy="619936"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -716,15 +743,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>706436</xdr:colOff>
+      <xdr:colOff>706069</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>64076</xdr:rowOff>
+      <xdr:rowOff>24389</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
+      <xdr:colOff>872757</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>174624</xdr:rowOff>
+      <xdr:rowOff>134937</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -741,8 +768,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="992186" y="302201"/>
-          <a:ext cx="4357689" cy="586798"/>
+          <a:off x="991819" y="262514"/>
+          <a:ext cx="4357688" cy="586798"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -819,15 +846,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>130176</xdr:colOff>
+      <xdr:colOff>129808</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>103187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>700426</xdr:colOff>
+      <xdr:colOff>700059</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>134937</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -851,8 +878,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="130176" y="142874"/>
-          <a:ext cx="856000" cy="706438"/>
+          <a:off x="129808" y="103187"/>
+          <a:ext cx="856001" cy="706438"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -872,7 +899,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>404001</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>158749</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="663441" cy="619936"/>
@@ -913,6 +940,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>63026</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>59558</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A924EA19-9FD8-4A60-B193-AC0FCCA210ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7397749" y="1595438"/>
+          <a:ext cx="7992590" cy="5877745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1237,19 +1308,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:O46"/>
+  <dimension ref="A4:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1272,10 +1343,10 @@
     <row r="11" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="34"/>
+      <c r="A13" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="33"/>
     </row>
     <row r="14" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
@@ -1284,12 +1355,12 @@
       <c r="D14" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
+      <c r="E14" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
       <c r="B15" s="11"/>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
@@ -1306,8 +1377,8 @@
       <c r="E17" s="39"/>
     </row>
     <row r="18" spans="1:5" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1330,13 +1401,13 @@
       <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
+      <c r="A22" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
     </row>
     <row r="23" spans="1:5" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
@@ -1346,20 +1417,20 @@
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
+      <c r="A24" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
     </row>
     <row r="25" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
     </row>
     <row r="26" spans="1:5" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
@@ -1392,213 +1463,319 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="29">
         <v>1</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="41"/>
+      <c r="E29" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="29">
+        <v>2</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="41"/>
+      <c r="E30" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="29">
+        <v>3</v>
+      </c>
+      <c r="B31" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="31">
-        <v>13</v>
-      </c>
-      <c r="E29" s="31">
+      <c r="C31" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="41"/>
+      <c r="E31" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="29">
+        <v>4</v>
+      </c>
+      <c r="B32" s="40" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31">
-        <v>2</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="31">
-        <v>13</v>
-      </c>
-      <c r="E30" s="31">
+      <c r="C32" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="29">
+        <v>5</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="29">
+        <v>6</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="29">
+        <v>7</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="41"/>
+      <c r="E35" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="29">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="31">
-        <v>3</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="31">
-        <v>13</v>
-      </c>
-      <c r="E31" s="31">
+      <c r="B36" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="41"/>
+      <c r="E36" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="29">
+        <v>9</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="41"/>
+      <c r="E37" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="29">
+        <v>10</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="41"/>
+      <c r="E38" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="27" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="27">
+        <v>10000</v>
+      </c>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="27" t="e">
+        <f>E39-E40</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="30" t="e">
+        <f>E41*15%</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="38" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31">
-        <v>4</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="31">
-        <v>13</v>
-      </c>
-      <c r="E32" s="31">
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="31" t="e">
+        <f>E42+E41</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="9"/>
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="9"/>
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="9"/>
+      <c r="G46" s="14"/>
+    </row>
+    <row r="47" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="32"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="9"/>
+      <c r="G47" s="14"/>
+    </row>
+    <row r="48" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="32"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="9"/>
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="32"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="9"/>
+      <c r="G49" s="14"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="34" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="27">
-        <f>SUM(E29:E32)</f>
-        <v>38</v>
-      </c>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="27">
-        <v>10000</v>
-      </c>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="27">
-        <f>E33-E34</f>
-        <v>-9962</v>
-      </c>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="32">
-        <f>E35*15%</f>
-        <v>-1494.3</v>
-      </c>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="1:15" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="33">
-        <f>E36+E35</f>
-        <v>-11456.3</v>
-      </c>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="9"/>
-      <c r="G38" s="14"/>
-    </row>
-    <row r="39" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9"/>
-      <c r="G39" s="14"/>
-    </row>
-    <row r="40" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="9"/>
-      <c r="G40" s="14"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="35"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="13"/>
-      <c r="J41" s="2"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E42" s="9"/>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="E43" s="16"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="13"/>
-      <c r="J43" s="2"/>
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J44" s="2"/>
-      <c r="L44" s="13"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L45" s="13"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L46" s="13"/>
+      <c r="B50" s="34"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="13"/>
+      <c r="J50" s="2"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E51" s="9"/>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="E52" s="16"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="13"/>
+      <c r="J52" s="2"/>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J53" s="2"/>
+      <c r="L53" s="13"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L54" s="13"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L55" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A50:B50"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A24:E25"/>
-    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A39:D39"/>
     <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="44" max="7" man="1"/>
+    <brk id="53" max="7" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
